--- a/xls/demo.xlsx
+++ b/xls/demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>S1</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -61,6 +61,38 @@
   </si>
   <si>
     <t>等级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性1ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性1Value</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性2ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性2Value</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物名字</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>特点1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>特点2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -989,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1000,7 +1032,7 @@
     <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1013,8 +1045,32 @@
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1028,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1042,7 +1098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1056,7 +1112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1070,7 +1126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>5</v>
       </c>

--- a/xls/demo.xlsx
+++ b/xls/demo.xlsx
@@ -36,14 +36,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>名字</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>S1DESC</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -60,39 +52,47 @@
     <t>S5DESC</t>
   </si>
   <si>
-    <t>等级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性1ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性1Value</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性2ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性2Value</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物名字</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>特点1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>特点2</t>
+    <t>Name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAttr1ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAttr2Value</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAttr2ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMonsterID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAttr1CValue</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMonsterName</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1023,13 +1023,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="30.25" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="24.75" customWidth="1"/>
+    <col min="9" max="9" width="26.25" customWidth="1"/>
+    <col min="10" max="10" width="31.25" customWidth="1"/>
+    <col min="11" max="11" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1037,10 +1045,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1049,25 +1057,25 @@
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1078,9 +1086,33 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
     </row>
@@ -1092,9 +1124,33 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
         <v>2</v>
       </c>
     </row>
@@ -1106,9 +1162,33 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>3</v>
       </c>
     </row>
@@ -1120,9 +1200,33 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
         <v>4</v>
       </c>
     </row>
@@ -1134,9 +1238,33 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
         <v>5</v>
       </c>
     </row>

--- a/xls/demo.xlsx
+++ b/xls/demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>S1</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -52,47 +52,39 @@
     <t>S5DESC</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>名字</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Desc</t>
+    <t>描述</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Level</t>
+    <t>等级</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>CAttr1ID</t>
+    <t>属性1ID</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>CAttr2Value</t>
+    <t>属性1数值</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>CAttr2ID</t>
+    <t>属性2ID</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>CMonsterID</t>
+    <t>属性2数值</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>CSP1</t>
+    <t>怪物ID</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>CSP2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAttr1CValue</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMonsterName</t>
+    <t>怪物名字</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1021,26 +1013,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
     <col min="6" max="6" width="30.25" customWidth="1"/>
     <col min="7" max="7" width="18.75" customWidth="1"/>
     <col min="8" max="8" width="24.75" customWidth="1"/>
     <col min="9" max="9" width="26.25" customWidth="1"/>
     <col min="10" max="10" width="31.25" customWidth="1"/>
-    <col min="11" max="11" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1057,28 +1049,22 @@
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1109,14 +1095,8 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1147,14 +1127,8 @@
       <c r="J3">
         <v>2</v>
       </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1185,14 +1159,8 @@
       <c r="J4">
         <v>3</v>
       </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1223,14 +1191,8 @@
       <c r="J5">
         <v>4</v>
       </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1259,12 +1221,6 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
         <v>5</v>
       </c>
     </row>

--- a/xls/demo.xlsx
+++ b/xls/demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>S1</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -85,6 +85,14 @@
   </si>
   <si>
     <t>怪物名字</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>特点1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>特点2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1013,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1032,7 +1040,7 @@
     <col min="10" max="10" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1063,8 +1071,14 @@
       <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1095,8 +1109,14 @@
       <c r="J2">
         <v>1</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1127,8 +1147,14 @@
       <c r="J3">
         <v>2</v>
       </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1159,8 +1185,14 @@
       <c r="J4">
         <v>3</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1191,8 +1223,14 @@
       <c r="J5">
         <v>4</v>
       </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1222,6 +1260,12 @@
       </c>
       <c r="J6">
         <v>5</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
